--- a/05_pliot_project_1_web_data/flight01.xlsx
+++ b/05_pliot_project_1_web_data/flight01.xlsx
@@ -14,12 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>1205출발,1210도착</t>
-  </si>
-  <si>
-    <t>1205출발,1211도착</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+  <si>
+    <t>1210도착</t>
+  </si>
+  <si>
+    <t>1211도착</t>
+  </si>
+  <si>
+    <t>1212도착</t>
+  </si>
+  <si>
+    <t>1213도착</t>
+  </si>
+  <si>
+    <t>(852500, 1850)</t>
+  </si>
+  <si>
+    <t>(880500, 1800)</t>
+  </si>
+  <si>
+    <t>(885500, 2160)</t>
+  </si>
+  <si>
+    <t>(890200, 2745)</t>
+  </si>
+  <si>
+    <t>(901100, 2478)</t>
+  </si>
+  <si>
+    <t>(890200, 2215)</t>
+  </si>
+  <si>
+    <t>(902500, 3563)</t>
+  </si>
+  <si>
+    <t>(901100, 2392)</t>
+  </si>
+  <si>
+    <t>(890200, 2795)</t>
+  </si>
+  <si>
+    <t>(968400, 2667)</t>
+  </si>
+  <si>
+    <t>(977000, 3072)</t>
   </si>
 </sst>
 </file>
@@ -377,58 +416,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>462.2162162162162</v>
-      </c>
-      <c r="B2">
-        <v>462.2162162162162</v>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>490.2777777777778</v>
-      </c>
-      <c r="B3">
-        <v>490.2777777777778</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>410.1851851851852</v>
-      </c>
-      <c r="B4">
-        <v>410.1851851851852</v>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>325.792349726776</v>
-      </c>
-      <c r="B5">
-        <v>403.7471783295711</v>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>375.3344481605351</v>
-      </c>
-      <c r="B6">
-        <v>252.3715969688465</v>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
